--- a/Circuit/V2/Solar charger/Solar charger.xlsx
+++ b/Circuit/V2/Solar charger/Solar charger.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Solar-board\Circuit\V2\Solar charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{400EB7DF-7E45-4C32-94F4-B8A8B615FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CDA920-74BD-490C-8939-EDE1405DF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solar charger" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -404,10 +415,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1018,16 +1029,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,6 +1166,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1170,6 +1186,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1185,6 +1206,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1200,6 +1226,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1215,6 +1246,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1230,6 +1266,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1247,6 +1288,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1264,6 +1310,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1281,6 +1332,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1298,6 +1354,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1315,6 +1376,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1332,6 +1398,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1350,6 +1421,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1368,6 +1444,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1386,6 +1467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1404,6 +1490,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1422,6 +1513,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1440,6 +1536,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -1457,6 +1558,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1474,6 +1580,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1491,6 +1602,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1508,6 +1624,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1525,6 +1646,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1542,6 +1668,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1560,6 +1691,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -1578,6 +1714,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1596,6 +1737,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1614,6 +1760,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -1632,6 +1783,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -1650,6 +1806,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -1667,6 +1828,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -1684,6 +1850,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -1701,6 +1872,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -1718,6 +1894,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -1735,6 +1916,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -1752,6 +1938,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -1770,6 +1961,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
@@ -1788,6 +1984,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
@@ -1806,6 +2007,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
@@ -1824,6 +2030,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
@@ -1842,6 +2053,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
@@ -1860,6 +2076,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
@@ -1877,6 +2098,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
@@ -1894,6 +2120,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
@@ -1911,6 +2142,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="45"/>
@@ -1928,6 +2164,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="46"/>
@@ -1945,6 +2186,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="47"/>
@@ -1962,6 +2208,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="48"/>
@@ -1980,6 +2231,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="49"/>
@@ -1998,6 +2254,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="50"/>
@@ -2016,6 +2277,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="51"/>
@@ -2034,6 +2300,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="52"/>
@@ -2052,6 +2323,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="53"/>
@@ -2070,6 +2346,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="54"/>
@@ -2085,6 +2366,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="55"/>
@@ -2100,6 +2386,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="56"/>
@@ -2115,6 +2406,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="57"/>
@@ -2130,6 +2426,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="58"/>
@@ -2145,6 +2446,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="59"/>
@@ -2160,6 +2466,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="60"/>
@@ -2177,6 +2488,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="61"/>
@@ -2194,6 +2510,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="62"/>
@@ -2211,6 +2532,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="63"/>
@@ -2228,6 +2554,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="64"/>
@@ -2245,6 +2576,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="65"/>
@@ -2262,6 +2598,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="66"/>
@@ -2280,6 +2621,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="67"/>
@@ -2298,6 +2644,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="68"/>
@@ -2316,6 +2667,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="69"/>
@@ -2334,6 +2690,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="70"/>
@@ -2352,6 +2713,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="71"/>
@@ -2370,6 +2736,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="72"/>
@@ -2387,6 +2758,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000091-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="73"/>
@@ -2404,6 +2780,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000093-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="74"/>
@@ -2421,6 +2802,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000095-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="75"/>
@@ -2438,6 +2824,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000097-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="76"/>
@@ -2455,6 +2846,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000099-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="77"/>
@@ -2472,6 +2868,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009B-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="78"/>
@@ -2490,6 +2891,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009D-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="79"/>
@@ -2508,6 +2914,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009F-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="80"/>
@@ -2526,6 +2937,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A1-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="81"/>
@@ -2544,6 +2960,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A3-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="82"/>
@@ -2562,6 +2983,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A5-9458-4545-A081-04EC19571990}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3643,15 +4069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>94421</xdr:rowOff>
+      <xdr:colOff>1805609</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2343979</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>795131</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3975,11 +4401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/Circuit/V2/Solar charger/Solar charger.xlsx
+++ b/Circuit/V2/Solar charger/Solar charger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Solar-board\Circuit\V2\Solar charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CDA920-74BD-490C-8939-EDE1405DF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77847FE2-7A2F-4BF6-B9EC-E5DC020D3ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3425,7 +3425,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.7143999999999999</c:v>
+                  <c:v>1.3572</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0</c:v>
@@ -4404,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5783,7 +5783,7 @@
         <v>107</v>
       </c>
       <c r="B83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>121</v>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="H83" s="2">
         <f t="shared" si="1"/>
-        <v>2.7143999999999999</v>
+        <v>1.3572</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5836,7 +5836,7 @@
     <row r="87" spans="1:8">
       <c r="H87" s="5">
         <f>SUM(H3:H85)</f>
-        <v>38.523165999999975</v>
+        <v>37.165965999999976</v>
       </c>
     </row>
   </sheetData>
